--- a/01. 요구분석/[디비2조]요구분석(초안).xlsx
+++ b/01. 요구분석/[디비2조]요구분석(초안).xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\class\GitHub\SFT_EDC_CNT\01. 요구분석\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="26955" windowHeight="13020" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="26955" windowHeight="13020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="요약" sheetId="4" r:id="rId1"/>
@@ -17,7 +12,7 @@
     <sheet name="2. 교사" sheetId="5" r:id="rId3"/>
     <sheet name="3. 학생" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -168,14 +163,6 @@
   </si>
   <si>
     <t>메인 &gt; 교사 &gt; 교사 계정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 강의를 마친 과목에 한해서만 성적 입출력 가능
-- 과정을 중도 탈락해서 성적 처리가 제외된 교육생이더라도 교육생 명단에는 
-출력되어야 함. 중도 탈락 여부를 확인할 수 있도록 해야 함.
-- 중도 탈락인 경우 중도탈락 날짜가 출력
-- 총점 평가비율(80/과목개수 = 80%), 출석률(20 = 20%), 시험 날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -229,17 +216,6 @@
     <t>- 상담일지 :  학생정보, 상담날짜, 상담요청내용, 종합의견
 -- 학생정보 출력 시 출력할 내용
 : 학번, 학생명, 수강중인 과정명, 연락처, 출석률, 학과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 상담요청 존재할 경우 
- 1.해당 학생의 정보를 확인가능
-   -조회 될 정보 : 학번(PK), 학생명, 수강중인 과정명, 연락처, 출석률, 학과
- 2. 상담날짜 선택 가능
-- 상담일지에 대한 입력, 수정, 삭제가 가능함 : 상담일지 작성 가능
--- 1) 입력가능정보 : 상담날짜, 간략한 상담 요청 내용, 학생정보, 상담내용, 종합의견 작성
--- 2) 작성 완료시, 학생의 상담 유무가 완료 -&gt; 미완료로 변경됨
-- 상담일지 조회 시, 학생들의 상담내역을 조회가능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -794,12 +770,30 @@
   : 과정 + 개설과정 + 개설과목관리 + 과목</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>- 강의를 마친 과목에 한해서만 성적 입출력 가능
+- 과정을 중도 탈락해서 성적 처리가 제외된 교육생이더라도 교육생 명단에는 
+출력되어야 함. 중도 탈락 여부를 확인할 수 있도록 해야 함.
+- 중도 탈락 여부는 수료상태 데이터에서만 확인가능.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 상담요청 존재할 경우 
+ 1.해당 학생의 정보를 확인가능
+   -조회 될 정보 : 학번(PK), 학생명, 수강중인 과정명, 연락처,  학과
+ 2. 상담날짜 선택 가능
+- 상담일지에 대한 입력, 수정, 삭제가 가능함 : 상담일지 작성 가능
+-- 1) 입력가능정보 : 상담날짜, 간략한 상담 요청 내용, 학생정보, 상담내용, 종합의견 작성
+-- 2) 작성 완료시, 상담 요청 내역에서 사라짐.
+- 상담일지 조회 시, 학생들의 상담내역을 조회가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1478,173 +1472,173 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1706,7 +1700,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1738,10 +1732,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1773,7 +1766,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1949,14 +1941,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B5:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4">
       <c r="C5" t="s">
         <v>24</v>
       </c>
@@ -1964,19 +1956,19 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4">
       <c r="B6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1986,15 +1978,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
   <dimension ref="B1:G17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
     <col min="2" max="2" width="11.125" style="3" customWidth="1"/>
@@ -2005,39 +1997,39 @@
     <col min="7" max="7" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:7" ht="17.25" thickTop="1">
       <c r="B2" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="105" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="49" t="s">
+      <c r="C4" s="65"/>
+    </row>
+    <row r="5" spans="2:7" ht="17.25" thickBot="1">
+      <c r="B5" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="106" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="49" t="s">
+      <c r="C5" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="106"/>
-    </row>
-    <row r="5" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="107" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="2:7" ht="18" thickTop="1" thickBot="1"/>
+    <row r="7" spans="2:7">
       <c r="B7" s="16" t="s">
         <v>12</v>
       </c>
@@ -2057,98 +2049,98 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="36" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" ht="36">
       <c r="B8" s="40"/>
-      <c r="C8" s="103" t="s">
-        <v>67</v>
+      <c r="C8" s="62" t="s">
+        <v>65</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F8" s="41"/>
       <c r="G8" s="42"/>
     </row>
-    <row r="9" spans="2:7" ht="60" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" ht="60">
       <c r="B9" s="29"/>
-      <c r="C9" s="86" t="s">
-        <v>69</v>
+      <c r="C9" s="58" t="s">
+        <v>67</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="2:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" ht="120">
       <c r="B10" s="29"/>
-      <c r="C10" s="86" t="s">
-        <v>70</v>
+      <c r="C10" s="58" t="s">
+        <v>68</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>5</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="156" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="156">
       <c r="B11" s="29"/>
-      <c r="C11" s="86" t="s">
-        <v>71</v>
+      <c r="C11" s="58" t="s">
+        <v>69</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="156" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="156">
       <c r="B12" s="29"/>
-      <c r="C12" s="86" t="s">
-        <v>72</v>
+      <c r="C12" s="58" t="s">
+        <v>70</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="2:7" ht="168" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" ht="168">
       <c r="B13" s="29"/>
-      <c r="C13" s="86" t="s">
-        <v>73</v>
+      <c r="C13" s="58" t="s">
+        <v>71</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>9</v>
@@ -2157,69 +2149,69 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="132" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" ht="132">
       <c r="B14" s="29"/>
-      <c r="C14" s="86" t="s">
-        <v>74</v>
+      <c r="C14" s="58" t="s">
+        <v>72</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="180" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="180">
       <c r="B15" s="29"/>
-      <c r="C15" s="86" t="s">
-        <v>75</v>
+      <c r="C15" s="58" t="s">
+        <v>73</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="2:7" ht="132" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" ht="132">
       <c r="B16" s="29"/>
-      <c r="C16" s="86" t="s">
-        <v>76</v>
+      <c r="C16" s="58" t="s">
+        <v>74</v>
       </c>
       <c r="D16" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="180.75" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="2:7" ht="180.75" thickBot="1">
       <c r="B17" s="29"/>
       <c r="C17" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F17" s="39" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G17" s="15"/>
     </row>
@@ -2231,17 +2223,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
   <dimension ref="B1:G13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
     <col min="2" max="2" width="11.125" style="3" customWidth="1"/>
@@ -2252,39 +2242,39 @@
     <col min="7" max="7" width="25.125" style="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:7" ht="17.25" thickTop="1">
       <c r="B2" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="105" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="49" t="s">
+      <c r="C4" s="65"/>
+    </row>
+    <row r="5" spans="2:7" ht="17.25" thickBot="1">
+      <c r="B5" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="106" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="49" t="s">
+      <c r="C5" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="106"/>
-    </row>
-    <row r="5" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="107" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="2:7" ht="18" thickTop="1" thickBot="1"/>
+    <row r="7" spans="2:7">
       <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
@@ -2304,9 +2294,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="60" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" ht="60">
       <c r="B8" s="29"/>
-      <c r="C8" s="86" t="s">
+      <c r="C8" s="58" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="23" t="s">
@@ -2320,9 +2310,9 @@
       </c>
       <c r="G8" s="35"/>
     </row>
-    <row r="9" spans="2:7" ht="96" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" ht="96">
       <c r="B9" s="29"/>
-      <c r="C9" s="86" t="s">
+      <c r="C9" s="58" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="23" t="s">
@@ -2336,73 +2326,73 @@
       </c>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="2:7" ht="192" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" ht="192">
       <c r="B10" s="29"/>
-      <c r="C10" s="86" t="s">
+      <c r="C10" s="58" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>19</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="48" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="48">
       <c r="B11" s="29"/>
-      <c r="C11" s="86" t="s">
+      <c r="C11" s="58" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="96" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="96">
       <c r="B12" s="29"/>
-      <c r="C12" s="86" t="s">
-        <v>35</v>
+      <c r="C12" s="58" t="s">
+        <v>34</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="G12" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="168.75" thickBot="1">
+      <c r="B13" s="38"/>
+      <c r="C13" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="31" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="180.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="38"/>
-      <c r="C13" s="104" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="25" t="s">
+      <c r="E13" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="F13" s="25" t="s">
         <v>41</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>43</v>
       </c>
       <c r="G13" s="36"/>
     </row>
@@ -2414,7 +2404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
@@ -2422,7 +2412,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
     <col min="2" max="2" width="8.25" style="26" customWidth="1"/>
@@ -2433,345 +2423,345 @@
     <col min="7" max="7" width="52.25" style="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:7" ht="17.25" thickTop="1">
       <c r="B2" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="45" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="49" t="s">
+      <c r="C4" s="46"/>
+    </row>
+    <row r="5" spans="2:7" ht="17.25" thickBot="1">
+      <c r="B5" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C5" s="47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="18" thickTop="1" thickBot="1"/>
+    <row r="7" spans="2:7">
+      <c r="B7" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="46"/>
-    </row>
-    <row r="5" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="47" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="27" t="s">
+      <c r="D7" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="E7" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="F7" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="G7" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="F7" s="20" t="s">
+    </row>
+    <row r="8" spans="2:7" ht="34.5" customHeight="1">
+      <c r="B8" s="67"/>
+      <c r="C8" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="D8" s="23" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="52"/>
-      <c r="C8" s="53" t="s">
+      <c r="E8" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="F8" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="G8" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="F8" s="54" t="s">
+    </row>
+    <row r="9" spans="2:7" ht="42" customHeight="1">
+      <c r="B9" s="68"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="G8" s="55" t="s">
+      <c r="E9" s="23" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="56"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="23" t="s">
+      <c r="F9" s="72"/>
+      <c r="G9" s="74"/>
+    </row>
+    <row r="10" spans="2:7" ht="21" customHeight="1">
+      <c r="B10" s="67"/>
+      <c r="C10" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="D10" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59"/>
-    </row>
-    <row r="10" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="52"/>
-      <c r="C10" s="53" t="s">
+      <c r="E10" s="80" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="60" t="s">
+      <c r="F10" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="61" t="s">
+      <c r="G10" s="85" t="s">
         <v>105</v>
       </c>
-      <c r="F10" s="62" t="s">
+    </row>
+    <row r="11" spans="2:7" ht="27" customHeight="1">
+      <c r="B11" s="75"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="74"/>
+    </row>
+    <row r="12" spans="2:7" ht="40.5" customHeight="1">
+      <c r="B12" s="75"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="G10" s="63" t="s">
+      <c r="F12" s="83"/>
+      <c r="G12" s="52" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="64"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="59"/>
-    </row>
-    <row r="12" spans="2:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="64"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="23" t="s">
+    <row r="13" spans="2:7" ht="24" customHeight="1">
+      <c r="B13" s="75"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="68"/>
-      <c r="G12" s="69" t="s">
+      <c r="F13" s="83"/>
+      <c r="G13" s="85" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="64"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="61" t="s">
+    <row r="14" spans="2:7">
+      <c r="B14" s="68"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="74"/>
+    </row>
+    <row r="15" spans="2:7" ht="51.75" customHeight="1">
+      <c r="B15" s="67"/>
+      <c r="C15" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="F13" s="68"/>
-      <c r="G13" s="63" t="s">
+      <c r="D15" s="86" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="56"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="59"/>
-    </row>
-    <row r="15" spans="2:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="52"/>
-      <c r="C15" s="53" t="s">
+      <c r="E15" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="D15" s="72" t="s">
+      <c r="F15" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="E15" s="73" t="s">
+      <c r="G15" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="F15" s="62" t="s">
+    </row>
+    <row r="16" spans="2:7" ht="35.25" customHeight="1">
+      <c r="B16" s="75"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="G15" s="74" t="s">
+      <c r="F16" s="83"/>
+      <c r="G16" s="89" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="64"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="73" t="s">
+    <row r="17" spans="2:7" s="55" customFormat="1">
+      <c r="B17" s="75"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="77" t="s">
         <v>117</v>
       </c>
-      <c r="F16" s="68"/>
-      <c r="G16" s="76" t="s">
+      <c r="F17" s="83"/>
+      <c r="G17" s="90"/>
+    </row>
+    <row r="18" spans="2:7" s="55" customFormat="1">
+      <c r="B18" s="75"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="90"/>
+    </row>
+    <row r="19" spans="2:7" s="55" customFormat="1" ht="19.5" customHeight="1">
+      <c r="B19" s="75"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="77" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" s="78" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="64"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="60" t="s">
+      <c r="F19" s="83"/>
+      <c r="G19" s="90"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="68"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="91"/>
+    </row>
+    <row r="21" spans="2:7" ht="38.25" customHeight="1">
+      <c r="B21" s="56"/>
+      <c r="C21" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="F17" s="68"/>
-      <c r="G17" s="77"/>
-    </row>
-    <row r="18" spans="2:7" s="78" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="64"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="77"/>
-    </row>
-    <row r="19" spans="2:7" s="78" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="64"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="60" t="s">
+      <c r="D21" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="F19" s="68"/>
-      <c r="G19" s="77"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="56"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="80"/>
-    </row>
-    <row r="21" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="81"/>
-      <c r="C21" s="53" t="s">
+      <c r="E21" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="D21" s="82" t="s">
+      <c r="F21" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="E21" s="73" t="s">
+      <c r="G21" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="F21" s="62" t="s">
+    </row>
+    <row r="22" spans="2:7" ht="67.5" customHeight="1">
+      <c r="B22" s="75"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="G21" s="76" t="s">
+      <c r="E22" s="80" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="64"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="23" t="s">
+      <c r="F22" s="83"/>
+      <c r="G22" s="94"/>
+    </row>
+    <row r="23" spans="2:7" ht="30.75" customHeight="1">
+      <c r="B23" s="75"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="E22" s="61" t="s">
+      <c r="E23" s="96"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="94"/>
+    </row>
+    <row r="24" spans="2:7" ht="30.75" customHeight="1">
+      <c r="B24" s="68"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="F22" s="68"/>
-      <c r="G22" s="83"/>
-    </row>
-    <row r="23" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="23" t="s">
+      <c r="E24" s="81"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="95"/>
+    </row>
+    <row r="25" spans="2:7" ht="84.75" customHeight="1">
+      <c r="B25" s="28"/>
+      <c r="C25" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="E23" s="84"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="83"/>
-    </row>
-    <row r="24" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="56"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="23" t="s">
+      <c r="D25" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="E24" s="67"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="85"/>
-    </row>
-    <row r="25" spans="2:7" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="28"/>
-      <c r="C25" s="86" t="s">
+      <c r="E25" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="F25" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="G25" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="F25" s="87" t="s">
+    </row>
+    <row r="26" spans="2:7" ht="51.75" customHeight="1">
+      <c r="B26" s="67"/>
+      <c r="C26" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="G25" s="32" t="s">
+      <c r="D26" s="23" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="26" spans="2:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="52"/>
-      <c r="C26" s="53" t="s">
+      <c r="E26" s="77" t="s">
         <v>135</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="F26" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="E26" s="60" t="s">
+      <c r="G26" s="92" t="s">
         <v>137</v>
       </c>
-      <c r="F26" s="54" t="s">
+    </row>
+    <row r="27" spans="2:7" ht="47.25" customHeight="1">
+      <c r="B27" s="68"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="G26" s="88" t="s">
+      <c r="E27" s="79"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="93"/>
+    </row>
+    <row r="28" spans="2:7" ht="36.75" customHeight="1">
+      <c r="B28" s="67"/>
+      <c r="C28" s="98" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="27" spans="2:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="56"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="23" t="s">
+      <c r="D28" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="E27" s="70"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="89"/>
-    </row>
-    <row r="28" spans="2:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="52"/>
-      <c r="C28" s="90" t="s">
+      <c r="E28" s="101" t="s">
         <v>141</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="F28" s="82" t="s">
         <v>142</v>
       </c>
-      <c r="E28" s="91" t="s">
+      <c r="G28" s="105" t="s">
         <v>143</v>
       </c>
-      <c r="F28" s="62" t="s">
+    </row>
+    <row r="29" spans="2:7" ht="36.75" customHeight="1">
+      <c r="B29" s="75"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="G28" s="92" t="s">
+      <c r="E29" s="102"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="106"/>
+    </row>
+    <row r="30" spans="2:7" ht="36.75" customHeight="1" thickBot="1">
+      <c r="B30" s="97"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="61" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="29" spans="2:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="64"/>
-      <c r="C29" s="93"/>
-      <c r="D29" s="94" t="s">
-        <v>146</v>
-      </c>
-      <c r="E29" s="95"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="96"/>
-    </row>
-    <row r="30" spans="2:7" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="97"/>
-      <c r="C30" s="98"/>
-      <c r="D30" s="99" t="s">
-        <v>147</v>
-      </c>
-      <c r="E30" s="100"/>
-      <c r="F30" s="101"/>
-      <c r="G30" s="102"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -2790,9 +2780,6 @@
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="F26:F27"/>
     <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="G13:G14"/>
     <mergeCell ref="B15:B20"/>
     <mergeCell ref="C15:C20"/>
     <mergeCell ref="D15:D20"/>
@@ -2809,6 +2796,9 @@
     <mergeCell ref="D10:D14"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F14"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="G13:G14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
